--- a/inflation-calculations-all-three-types.xlsx
+++ b/inflation-calculations-all-three-types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickocal_mchome/Documents/_uq-aibe/explainer-series/inflation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D230474-4226-EE43-A595-D6C29303012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CC3C4D-1780-4744-A1BC-84A4ED7B5A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="33340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Typical_Queenslander" sheetId="4" r:id="rId1"/>
@@ -19,10 +19,6 @@
     <sheet name="Index" sheetId="3" r:id="rId4"/>
     <sheet name="Enquiries" sheetId="2" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="A2325806K">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2325806K_Data">Single_Parent!#REF!</definedName>
@@ -30,9 +26,9 @@
     <definedName name="A2325811C">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2325811C_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2325811C_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2325816R">Single_Parent!$N$1:$N$10,Single_Parent!$N$11:$N$12</definedName>
-    <definedName name="A2325816R_Data">Single_Parent!$N$11:$N$12</definedName>
-    <definedName name="A2325816R_Latest">Single_Parent!$N$12</definedName>
+    <definedName name="A2325816R">Single_Parent!$O$1:$O$10,Single_Parent!$O$11:$O$12</definedName>
+    <definedName name="A2325816R_Data">Single_Parent!$O$11:$O$12</definedName>
+    <definedName name="A2325816R_Latest">Single_Parent!$O$12</definedName>
     <definedName name="A2325821J">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2325821J_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2325821J_Latest">Single_Parent!#REF!</definedName>
@@ -126,9 +122,9 @@
     <definedName name="A2325991X">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2325991X_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2325991X_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2325996K">Single_Parent!$G$1:$G$10,Single_Parent!$G$11:$G$12</definedName>
-    <definedName name="A2325996K_Data">Single_Parent!$G$11:$G$12</definedName>
-    <definedName name="A2325996K_Latest">Single_Parent!$G$12</definedName>
+    <definedName name="A2325996K">Single_Parent!$H$1:$H$10,Single_Parent!$H$11:$H$12</definedName>
+    <definedName name="A2325996K_Data">Single_Parent!$H$11:$H$12</definedName>
+    <definedName name="A2325996K_Latest">Single_Parent!$H$12</definedName>
     <definedName name="A2326001V">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2326001V_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2326001V_Latest">Single_Parent!#REF!</definedName>
@@ -150,9 +146,9 @@
     <definedName name="A2326036V">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2326036V_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2326036V_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2326041L">Single_Parent!$I$1:$I$10,Single_Parent!$I$11:$I$12</definedName>
-    <definedName name="A2326041L_Data">Single_Parent!$I$11:$I$12</definedName>
-    <definedName name="A2326041L_Latest">Single_Parent!$I$12</definedName>
+    <definedName name="A2326041L">Single_Parent!$J$1:$J$10,Single_Parent!$J$11:$J$12</definedName>
+    <definedName name="A2326041L_Data">Single_Parent!$J$11:$J$12</definedName>
+    <definedName name="A2326041L_Latest">Single_Parent!$J$12</definedName>
     <definedName name="A2326046X">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2326046X_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2326046X_Latest">Single_Parent!#REF!</definedName>
@@ -198,9 +194,9 @@
     <definedName name="A2331076J">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331076J_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331076J_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2331081A">Single_Parent!$H$1:$H$10,Single_Parent!$H$11:$H$12</definedName>
-    <definedName name="A2331081A_Data">Single_Parent!$H$11:$H$12</definedName>
-    <definedName name="A2331081A_Latest">Single_Parent!$H$12</definedName>
+    <definedName name="A2331081A">Single_Parent!$I$1:$I$10,Single_Parent!$I$11:$I$12</definedName>
+    <definedName name="A2331081A_Data">Single_Parent!$I$11:$I$12</definedName>
+    <definedName name="A2331081A_Latest">Single_Parent!$I$12</definedName>
     <definedName name="A2331086L">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331086L_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331086L_Latest">Single_Parent!#REF!</definedName>
@@ -222,9 +218,9 @@
     <definedName name="A2331166L">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331166L_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331166L_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2331171F">Single_Parent!$J$1:$J$10,Single_Parent!$J$11:$J$12</definedName>
-    <definedName name="A2331171F_Data">Single_Parent!$J$11:$J$12</definedName>
-    <definedName name="A2331171F_Latest">Single_Parent!$J$12</definedName>
+    <definedName name="A2331171F">Single_Parent!$K$1:$K$10,Single_Parent!$K$11:$K$12</definedName>
+    <definedName name="A2331171F_Data">Single_Parent!$K$11:$K$12</definedName>
+    <definedName name="A2331171F_Latest">Single_Parent!$K$12</definedName>
     <definedName name="A2331176T">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331176T_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331176T_Latest">Single_Parent!#REF!</definedName>
@@ -246,9 +242,9 @@
     <definedName name="A2331211L">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331211L_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331211L_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2331216X">Single_Parent!$K$1:$K$10,Single_Parent!$K$11:$K$12</definedName>
-    <definedName name="A2331216X_Data">Single_Parent!$K$11:$K$12</definedName>
-    <definedName name="A2331216X_Latest">Single_Parent!$K$12</definedName>
+    <definedName name="A2331216X">Single_Parent!$L$1:$L$10,Single_Parent!$L$11:$L$12</definedName>
+    <definedName name="A2331216X_Data">Single_Parent!$L$11:$L$12</definedName>
+    <definedName name="A2331216X_Latest">Single_Parent!$L$12</definedName>
     <definedName name="A2331221T">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331221T_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331221T_Latest">Single_Parent!#REF!</definedName>
@@ -270,9 +266,9 @@
     <definedName name="A2331391J">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331391J_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331391J_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2331396V">Single_Parent!$L$1:$L$10,Single_Parent!$L$11:$L$12</definedName>
-    <definedName name="A2331396V_Data">Single_Parent!$L$11:$L$12</definedName>
-    <definedName name="A2331396V_Latest">Single_Parent!$L$12</definedName>
+    <definedName name="A2331396V">Single_Parent!$M$1:$M$10,Single_Parent!$M$11:$M$12</definedName>
+    <definedName name="A2331396V_Data">Single_Parent!$M$11:$M$12</definedName>
+    <definedName name="A2331396V_Latest">Single_Parent!$M$12</definedName>
     <definedName name="A2331401A">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2331401A_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2331401A_Latest">Single_Parent!#REF!</definedName>
@@ -294,9 +290,9 @@
     <definedName name="A2332561F">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2332561F_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2332561F_Latest">Single_Parent!#REF!</definedName>
-    <definedName name="A2332566T">Single_Parent!$M$1:$M$10,Single_Parent!$M$11:$M$12</definedName>
-    <definedName name="A2332566T_Data">Single_Parent!$M$11:$M$12</definedName>
-    <definedName name="A2332566T_Latest">Single_Parent!$M$12</definedName>
+    <definedName name="A2332566T">Single_Parent!$N$1:$N$10,Single_Parent!$N$11:$N$12</definedName>
+    <definedName name="A2332566T_Data">Single_Parent!$N$11:$N$12</definedName>
+    <definedName name="A2332566T_Latest">Single_Parent!$N$12</definedName>
     <definedName name="A2332571K">Single_Parent!#REF!,Single_Parent!#REF!</definedName>
     <definedName name="A2332571K_Data">Single_Parent!#REF!</definedName>
     <definedName name="A2332571K_Latest">Single_Parent!#REF!</definedName>
@@ -372,7 +368,6 @@
             <color rgb="FF3F3F76"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Unless otherwise specified, reference period of each index: 2011–12 = 100.0.</t>
         </r>
@@ -588,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -629,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -643,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -656,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -670,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
       <text>
         <r>
           <rPr>
@@ -751,7 +746,6 @@
             <color rgb="FF3F3F76"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Unless otherwise specified, reference period of each index: 2011–12 = 100.0.</t>
         </r>
@@ -765,7 +759,6 @@
             <color rgb="FF3F3F76"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Unless otherwise specified, reference period of each index: 2011–12 = 100.0.</t>
         </r>
@@ -779,13 +772,12 @@
             <color rgb="FF3F3F76"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Unless otherwise specified, reference period of each index: 2011–12 = 100.0.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FCCE9D4D-91DD-304A-A629-38674D59E57B}">
+          </rPr>
+          <t>Unless otherwise specified, reference period of each index: 2011–12 = 100.0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FCCE9D4D-91DD-304A-A629-38674D59E57B}">
       <text>
         <r>
           <rPr>
@@ -799,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{39BAB829-8918-4548-8751-E67B5710EFBA}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{39BAB829-8918-4548-8751-E67B5710EFBA}">
       <text>
         <r>
           <rPr>
@@ -813,7 +805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0A53F208-F2F6-084A-893A-87D6175C66D1}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0A53F208-F2F6-084A-893A-87D6175C66D1}">
       <text>
         <r>
           <rPr>
@@ -826,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D0F006F2-59CC-F545-B777-1D7E5B017330}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{D0F006F2-59CC-F545-B777-1D7E5B017330}">
       <text>
         <r>
           <rPr>
@@ -840,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A9EFFBF2-0863-5743-814F-12458FDD501F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{A9EFFBF2-0863-5743-814F-12458FDD501F}">
       <text>
         <r>
           <rPr>
@@ -853,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9BFF68E6-397C-C54E-B979-442FE94198CB}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{9BFF68E6-397C-C54E-B979-442FE94198CB}">
       <text>
         <r>
           <rPr>
@@ -867,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{ACA2580F-000B-8E4B-A865-DDB4070B83AE}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{ACA2580F-000B-8E4B-A865-DDB4070B83AE}">
       <text>
         <r>
           <rPr>
@@ -881,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{8A283481-89BB-B44F-A8A2-3825D2F7294A}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{8A283481-89BB-B44F-A8A2-3825D2F7294A}">
       <text>
         <r>
           <rPr>
@@ -2193,30 +2185,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="245">
   <si>
     <t>Index Numbers ;  Food and non-alcoholic beverages ;  Sydney ;</t>
   </si>
@@ -2878,9 +2848,6 @@
     <t>Contribution for Single Parent</t>
   </si>
   <si>
-    <t>Rent</t>
-  </si>
-  <si>
     <t>Inflation for Single Parent (assuming Other is inflated at Brisbane CPI)</t>
   </si>
   <si>
@@ -2912,6 +2879,48 @@
   </si>
   <si>
     <t>Other: Calibrated to produce the accurate number for the Typical Qlder</t>
+  </si>
+  <si>
+    <t>Percentage Change from Corresponding Quarter of Previous Year ;  New dwelling purchase by owner-occupiers ;  Australia ;</t>
+  </si>
+  <si>
+    <t>Percentage Change from Corresponding Quarter of Previous Year ;  Utilities ;  Australia ;</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>PERCENT</t>
+  </si>
+  <si>
+    <t>A2329942A</t>
+  </si>
+  <si>
+    <t>A2326522A</t>
+  </si>
+  <si>
+    <t>Percentage Change from Corresponding Quarter of Previous Year ;  Rents ;  Australia ;</t>
+  </si>
+  <si>
+    <t>A2331877J</t>
+  </si>
+  <si>
+    <t>source-Rent</t>
+  </si>
+  <si>
+    <t>source-Utilities</t>
+  </si>
+  <si>
+    <t>[640105.xlsx]AnnualPercentCh!$BC$305</t>
+  </si>
+  <si>
+    <t>[640105.xlsx]AnnualPercentCh!$BJ$305</t>
+  </si>
+  <si>
+    <t>[640105.xlsx]AnnualPercentCh!$BF$305</t>
+  </si>
+  <si>
+    <t>source-New Dwelling purchase by owner-occupiers</t>
   </si>
 </sst>
 </file>
@@ -3076,7 +3085,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3148,6 +3157,9 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3276,145 +3288,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="AnnualPercentCh"/>
-      <sheetName val="Index"/>
-      <sheetName val="Data1"/>
-      <sheetName val="Data2"/>
-      <sheetName val="Data3"/>
-      <sheetName val="Enquiries"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="BF1" t="str">
-            <v>Percentage Change from Corresponding Quarter of Previous Year ;  New dwelling purchase by owner-occupiers ;  Australia ;</v>
-          </cell>
-          <cell r="BJ1" t="str">
-            <v>Percentage Change from Corresponding Quarter of Previous Year ;  Utilities ;  Australia ;</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="BF2" t="str">
-            <v>Percent</v>
-          </cell>
-          <cell r="BJ2" t="str">
-            <v>Percent</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="BF3" t="str">
-            <v>Original</v>
-          </cell>
-          <cell r="BJ3" t="str">
-            <v>Original</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="BF4" t="str">
-            <v>PERCENT</v>
-          </cell>
-          <cell r="BJ4" t="str">
-            <v>PERCENT</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="BF5" t="str">
-            <v>Quarter</v>
-          </cell>
-          <cell r="BJ5" t="str">
-            <v>Quarter</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="BF6">
-            <v>3</v>
-          </cell>
-          <cell r="BJ6">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="BF7">
-            <v>36312</v>
-          </cell>
-          <cell r="BJ7">
-            <v>26908</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="BF8">
-            <v>44621</v>
-          </cell>
-          <cell r="BJ8">
-            <v>44621</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="BF9">
-            <v>92</v>
-          </cell>
-          <cell r="BJ9">
-            <v>195</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="BF10" t="str">
-            <v>A2329942A</v>
-          </cell>
-          <cell r="BJ10" t="str">
-            <v>A2326522A</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="AnnualPercentCh"/>
-      <sheetName val="Index"/>
-      <sheetName val="Data1"/>
-      <sheetName val="Data2"/>
-      <sheetName val="Data3"/>
-      <sheetName val="Enquiries"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="305">
-          <cell r="BC305">
-            <v>1</v>
-          </cell>
-          <cell r="BF305">
-            <v>13.7</v>
-          </cell>
-          <cell r="BJ305">
-            <v>3.6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3738,10 +3611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5737E445-CAAE-4F49-95EE-82355D550BEC}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3751,7 +3624,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -3762,13 +3635,11 @@
       <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="27" t="str" cm="1">
-        <f t="array" ref="E1:E10">[1]AnnualPercentCh!$BF$1:$BF$10</f>
-        <v>Percentage Change from Corresponding Quarter of Previous Year ;  New dwelling purchase by owner-occupiers ;  Australia ;</v>
-      </c>
-      <c r="F1" s="27" t="str" cm="1">
-        <f t="array" ref="F1:F10">[1]AnnualPercentCh!$BJ$1:$BJ$10</f>
-        <v>Percentage Change from Corresponding Quarter of Previous Year ;  Utilities ;  Australia ;</v>
+      <c r="E1" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>28</v>
@@ -3795,7 +3666,7 @@
         <v>35</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -3811,11 +3682,11 @@
       <c r="D2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="28" t="str">
-        <v>Percent</v>
-      </c>
-      <c r="F2" s="28" t="str">
-        <v>Percent</v>
+      <c r="E2" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>105</v>
@@ -3855,11 +3726,11 @@
       <c r="D3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="28" t="str">
-        <v>Original</v>
-      </c>
-      <c r="F3" s="28" t="str">
-        <v>Original</v>
+      <c r="E3" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>106</v>
@@ -3899,11 +3770,11 @@
       <c r="D4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="28" t="str">
-        <v>PERCENT</v>
-      </c>
-      <c r="F4" s="28" t="str">
-        <v>PERCENT</v>
+      <c r="E4" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>107</v>
@@ -3943,11 +3814,11 @@
       <c r="D5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="28" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="F5" s="28" t="str">
-        <v>Quarter</v>
+      <c r="E5" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>108</v>
@@ -4163,11 +4034,11 @@
       <c r="D10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="28" t="str">
-        <v>A2329942A</v>
-      </c>
-      <c r="F10" s="28" t="str">
-        <v>A2326522A</v>
+      <c r="E10" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>137</v>
@@ -4395,11 +4266,9 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="23">
-        <f>[2]AnnualPercentCh!$BF$305/100</f>
         <v>0.13699999999999998</v>
       </c>
       <c r="F15" s="23">
-        <f>[2]AnnualPercentCh!$BJ$305/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="G15" s="21"/>
@@ -4413,7 +4282,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="20">
         <v>0.15</v>
@@ -4448,7 +4317,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="24">
         <f>B16*B14</f>
@@ -4504,7 +4373,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="26">
         <f>SUM(B17:M17) + O17</f>
@@ -4513,7 +4382,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="22" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>218</v>
@@ -4527,6 +4396,14 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E20" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4535,13 +4412,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScale="272" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:F15"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4549,16 +4426,16 @@
     <col min="1" max="1" width="31.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1"/>
     <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="1"/>
-    <col min="14" max="14" width="15.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="14.6640625" style="1"/>
+    <col min="4" max="12" width="14.6640625" style="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="1"/>
+    <col min="15" max="15" width="15.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -4572,39 +4449,41 @@
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="str" cm="1">
-        <f t="array" ref="F1:F10">[1]AnnualPercentCh!$BJ$1:$BJ$10</f>
-        <v>Percentage Change from Corresponding Quarter of Previous Year ;  Utilities ;  Australia ;</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P1" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>96</v>
       </c>
@@ -4620,11 +4499,11 @@
       <c r="E2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="28" t="str">
-        <v>Percent</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>105</v>
+      <c r="F2" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>105</v>
@@ -4647,8 +4526,11 @@
       <c r="N2" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O2" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -4664,10 +4546,10 @@
       <c r="E3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="28" t="str">
-        <v>Original</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -4691,8 +4573,11 @@
       <c r="N3" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O3" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
@@ -4708,11 +4593,11 @@
       <c r="E4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="28" t="str">
-        <v>PERCENT</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>107</v>
+      <c r="F4" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>107</v>
@@ -4735,8 +4620,11 @@
       <c r="N4" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O4" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>99</v>
       </c>
@@ -4752,10 +4640,10 @@
       <c r="E5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="28" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>108</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -4779,8 +4667,11 @@
       <c r="N5" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O5" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>100</v>
       </c>
@@ -4799,7 +4690,7 @@
       <c r="F6" s="29">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="29">
         <v>3</v>
       </c>
       <c r="H6" s="1">
@@ -4823,8 +4714,11 @@
       <c r="N6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -4843,32 +4737,35 @@
       <c r="F7" s="30">
         <v>26908</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="30">
+        <v>26908</v>
+      </c>
+      <c r="H7" s="6">
         <v>26543</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>32752</v>
-      </c>
-      <c r="I7" s="6">
-        <v>26543</v>
       </c>
       <c r="J7" s="6">
         <v>26543</v>
       </c>
       <c r="K7" s="6">
+        <v>26543</v>
+      </c>
+      <c r="L7" s="6">
         <v>32752</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>30011</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>38504</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>17777</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -4887,7 +4784,7 @@
       <c r="F8" s="30">
         <v>44621</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="30">
         <v>44621</v>
       </c>
       <c r="H8" s="6">
@@ -4911,8 +4808,11 @@
       <c r="N8" s="6">
         <v>44621</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O8" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>103</v>
       </c>
@@ -4931,32 +4831,35 @@
       <c r="F9" s="29">
         <v>195</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="29">
+        <v>195</v>
+      </c>
+      <c r="H9" s="1">
         <v>199</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>131</v>
-      </c>
-      <c r="I9" s="1">
-        <v>199</v>
       </c>
       <c r="J9" s="1">
         <v>199</v>
       </c>
       <c r="K9" s="1">
+        <v>199</v>
+      </c>
+      <c r="L9" s="1">
         <v>131</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>161</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>68</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>104</v>
       </c>
@@ -4972,35 +4875,38 @@
       <c r="E10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="28" t="str">
-        <v>A2326522A</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>44256</v>
       </c>
@@ -5016,33 +4922,33 @@
       <c r="E11" s="8">
         <v>119.5</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>111.6</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>146.1</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>103.9</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>77.099999999999994</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>108.1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="8">
         <v>139.4</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>112.5</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>118.2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>44621</v>
       </c>
@@ -5058,33 +4964,33 @@
       <c r="E12" s="8">
         <v>131.69999999999999</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>117.3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>152.5</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>118.6</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>76.5</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>111.7</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <v>146.4</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>116.4</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
         <v>125.3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="19">
         <f>A2325861A_Latest-B11</f>
         <v>5.1999999999999886</v>
@@ -5101,46 +5007,46 @@
         <f>A2325951F_Latest-E11</f>
         <v>12.199999999999989</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
-        <f>A2325996K_Latest-G11</f>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19">
+        <f>A2325996K_Latest-H11</f>
         <v>5.7000000000000028</v>
       </c>
-      <c r="H13" s="19">
-        <f>A2331081A_Latest-H11</f>
+      <c r="I13" s="19">
+        <f>A2331081A_Latest-I11</f>
         <v>6.4000000000000057</v>
       </c>
-      <c r="I13" s="19">
-        <f>A2326041L_Latest-I11</f>
+      <c r="J13" s="19">
+        <f>A2326041L_Latest-J11</f>
         <v>14.699999999999989</v>
       </c>
-      <c r="J13" s="19">
-        <f>A2331171F_Latest-J11</f>
+      <c r="K13" s="19">
+        <f>A2331171F_Latest-K11</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="K13" s="19">
-        <f>A2331216X_Latest-K11</f>
+      <c r="L13" s="19">
+        <f>A2331216X_Latest-L11</f>
         <v>3.6000000000000085</v>
       </c>
-      <c r="L13" s="19">
-        <f>A2331396V_Latest-L11</f>
+      <c r="M13" s="19">
+        <f>A2331396V_Latest-M11</f>
         <v>7</v>
       </c>
-      <c r="M13" s="19">
-        <f>A2332566T_Latest-M11</f>
+      <c r="N13" s="19">
+        <f>A2332566T_Latest-N11</f>
         <v>3.9000000000000057</v>
       </c>
-      <c r="N13" s="19">
-        <f>A2325816R_Latest-N11</f>
+      <c r="O13" s="19">
+        <f>A2325816R_Latest-O11</f>
         <v>7.0999999999999943</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="21">
-        <f t="shared" ref="B14:M14" si="0">(B12-B11)/B11</f>
+        <f t="shared" ref="B14:N14" si="0">(B12-B11)/B11</f>
         <v>4.5855379188712422E-2</v>
       </c>
       <c r="C14" s="21">
@@ -5152,62 +5058,60 @@
         <v>-2.3232323232323205E-2</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="0"/>
+        <f>(E12-E11)/E11</f>
         <v>0.10209205020920492</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>5.1075268817204332E-2</v>
       </c>
-      <c r="H14" s="21">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>4.3805612594113662E-2</v>
       </c>
-      <c r="I14" s="21">
+      <c r="J14" s="21">
         <f t="shared" si="0"/>
         <v>0.14148219441770921</v>
       </c>
-      <c r="J14" s="21">
+      <c r="K14" s="21">
         <f t="shared" si="0"/>
         <v>-7.7821011673151023E-3</v>
       </c>
-      <c r="K14" s="21">
+      <c r="L14" s="21">
         <f t="shared" si="0"/>
         <v>3.3302497687326633E-2</v>
       </c>
-      <c r="L14" s="21">
+      <c r="M14" s="21">
         <f t="shared" si="0"/>
         <v>5.0215208034433287E-2</v>
       </c>
-      <c r="M14" s="21">
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>3.4666666666666721E-2</v>
       </c>
-      <c r="N14" s="21">
-        <f>(N12-N11)/N11</f>
+      <c r="O14" s="21">
+        <f>(O12-O11)/O11</f>
         <v>6.0067681895093011E-2</v>
       </c>
-      <c r="O14" s="34">
+      <c r="P14" s="34">
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="23">
-        <f>[2]AnnualPercentCh!$BC$305/100</f>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23">
         <v>0.01</v>
       </c>
-      <c r="F15" s="23">
-        <f>[2]AnnualPercentCh!$BJ$305/100</f>
+      <c r="G15" s="23">
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -5215,37 +5119,38 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="21"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B16" s="20">
         <v>0.34</v>
       </c>
-      <c r="E16" s="20">
+      <c r="F16" s="20">
         <v>0.24</v>
       </c>
-      <c r="F16" s="20">
+      <c r="G16" s="20">
         <v>0.08</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L16" s="20">
+      <c r="M16" s="20">
         <v>0.05</v>
       </c>
-      <c r="N16" s="20">
-        <f>1 - SUM(B16:M16)</f>
+      <c r="O16" s="20">
+        <f>1 - SUM(B16:N16)</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="O16" s="21">
-        <f>1 - SUM($B16:$M16)</f>
+      <c r="P16" s="21">
+        <f>1 - SUM($B16:$N16)</f>
         <v>0.14999999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
         <v>219</v>
       </c>
@@ -5253,44 +5158,51 @@
         <f>B16*B14</f>
         <v>1.5590828924162225E-2</v>
       </c>
-      <c r="E17" s="24">
-        <f>E16*E15</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
       <c r="F17" s="24">
         <f>F16*F15</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G17" s="24">
         <v>2.8800000000000002E-3</v>
       </c>
-      <c r="I17" s="24">
-        <f>I16*I14</f>
+      <c r="J17" s="24">
+        <f>J16*J14</f>
         <v>1.9807507218479292E-2</v>
       </c>
-      <c r="L17" s="24">
-        <f>L16*L14</f>
+      <c r="M17" s="24">
+        <f>M16*M14</f>
         <v>2.5107604017216645E-3</v>
       </c>
-      <c r="N17" s="24">
-        <f>N16*N14</f>
+      <c r="O17" s="24">
+        <f>O16*O14</f>
         <v>9.0101522842639462E-3</v>
       </c>
-      <c r="O17" s="21">
-        <f>O16*O14</f>
+      <c r="P17" s="21">
+        <f>P16*P14</f>
         <v>3.8849999999999974E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="26">
-        <f>SUM(B17:M17) + O17</f>
+        <f>SUM(B17:N17) + P17</f>
         <v>4.7074096544363182E-2</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>220</v>
-      </c>
       <c r="F19" s="22" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F20" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5302,20 +5214,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA56139-DA0B-1742-804B-6AF8F980C383}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="207" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.83203125" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="73" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -5329,39 +5242,41 @@
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="27" t="str" cm="1">
-        <f t="array" ref="F1:F10">[1]AnnualPercentCh!$BJ$1:$BJ$10</f>
-        <v>Percentage Change from Corresponding Quarter of Previous Year ;  Utilities ;  Australia ;</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>96</v>
       </c>
@@ -5377,11 +5292,11 @@
       <c r="E2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="28" t="str">
-        <v>Percent</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>105</v>
+      <c r="F2" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>105</v>
@@ -5404,9 +5319,12 @@
       <c r="N2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -5422,10 +5340,10 @@
       <c r="E3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="28" t="str">
-        <v>Original</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -5449,9 +5367,12 @@
       <c r="N3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
@@ -5467,11 +5388,11 @@
       <c r="E4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="28" t="str">
-        <v>PERCENT</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>107</v>
+      <c r="F4" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>107</v>
@@ -5494,9 +5415,12 @@
       <c r="N4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>99</v>
       </c>
@@ -5512,10 +5436,10 @@
       <c r="E5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="28" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>108</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -5539,9 +5463,12 @@
       <c r="N5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>100</v>
       </c>
@@ -5560,7 +5487,7 @@
       <c r="F6" s="29">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="29">
         <v>3</v>
       </c>
       <c r="H6" s="1">
@@ -5584,9 +5511,12 @@
       <c r="N6" s="1">
         <v>3</v>
       </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -5605,33 +5535,36 @@
       <c r="F7" s="30">
         <v>26908</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="30">
+        <v>26908</v>
+      </c>
+      <c r="H7" s="6">
         <v>26543</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>32752</v>
-      </c>
-      <c r="I7" s="6">
-        <v>26543</v>
       </c>
       <c r="J7" s="6">
         <v>26543</v>
       </c>
       <c r="K7" s="6">
+        <v>26543</v>
+      </c>
+      <c r="L7" s="6">
         <v>32752</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>30011</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>38504</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>17777</v>
       </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -5650,7 +5583,7 @@
       <c r="F8" s="30">
         <v>44621</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="30">
         <v>44621</v>
       </c>
       <c r="H8" s="6">
@@ -5674,9 +5607,12 @@
       <c r="N8" s="6">
         <v>44621</v>
       </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="6">
+        <v>44621</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>103</v>
       </c>
@@ -5695,33 +5631,36 @@
       <c r="F9" s="29">
         <v>195</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="29">
+        <v>195</v>
+      </c>
+      <c r="H9" s="1">
         <v>199</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>131</v>
-      </c>
-      <c r="I9" s="1">
-        <v>199</v>
       </c>
       <c r="J9" s="1">
         <v>199</v>
       </c>
       <c r="K9" s="1">
+        <v>199</v>
+      </c>
+      <c r="L9" s="1">
         <v>131</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>161</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>68</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>295</v>
       </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>104</v>
       </c>
@@ -5737,36 +5676,39 @@
       <c r="E10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="28" t="str">
-        <v>A2326522A</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>44256</v>
       </c>
@@ -5782,34 +5724,34 @@
       <c r="E11" s="8">
         <v>119.5</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>111.6</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>146.1</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>103.9</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>77.099999999999994</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>108.1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="8">
         <v>139.4</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>112.5</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>118.2</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>44621</v>
       </c>
@@ -5825,34 +5767,34 @@
       <c r="E12" s="8">
         <v>131.69999999999999</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>117.3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>152.5</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>118.6</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>76.5</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>111.7</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <v>146.4</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>116.4</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
         <v>125.3</v>
       </c>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="19">
         <f>A2325861A_Latest-B11</f>
@@ -5870,47 +5812,47 @@
         <f>A2325951F_Latest-E11</f>
         <v>12.199999999999989</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
-        <f>A2325996K_Latest-G11</f>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19">
+        <f>A2325996K_Latest-H11</f>
         <v>5.7000000000000028</v>
       </c>
-      <c r="H13" s="19">
-        <f>A2331081A_Latest-H11</f>
+      <c r="I13" s="19">
+        <f>A2331081A_Latest-I11</f>
         <v>6.4000000000000057</v>
       </c>
-      <c r="I13" s="19">
-        <f>A2326041L_Latest-I11</f>
+      <c r="J13" s="19">
+        <f>A2326041L_Latest-J11</f>
         <v>14.699999999999989</v>
       </c>
-      <c r="J13" s="19">
-        <f>A2331171F_Latest-J11</f>
+      <c r="K13" s="19">
+        <f>A2331171F_Latest-K11</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="K13" s="19">
-        <f>A2331216X_Latest-K11</f>
+      <c r="L13" s="19">
+        <f>A2331216X_Latest-L11</f>
         <v>3.6000000000000085</v>
       </c>
-      <c r="L13" s="19">
-        <f>A2331396V_Latest-L11</f>
+      <c r="M13" s="19">
+        <f>A2331396V_Latest-M11</f>
         <v>7</v>
       </c>
-      <c r="M13" s="19">
-        <f>A2332566T_Latest-M11</f>
+      <c r="N13" s="19">
+        <f>A2332566T_Latest-N11</f>
         <v>3.9000000000000057</v>
       </c>
-      <c r="N13" s="19">
-        <f>A2325816R_Latest-N11</f>
+      <c r="O13" s="19">
+        <f>A2325816R_Latest-O11</f>
         <v>7.0999999999999943</v>
       </c>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="21">
-        <f t="shared" ref="B14:M14" si="0">(B12-B11)/B11</f>
+        <f t="shared" ref="B14:N14" si="0">(B12-B11)/B11</f>
         <v>4.5855379188712422E-2</v>
       </c>
       <c r="C14" s="21">
@@ -5922,62 +5864,60 @@
         <v>-2.3232323232323205E-2</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="0"/>
+        <f>(E12-E11)/E11</f>
         <v>0.10209205020920492</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>5.1075268817204332E-2</v>
       </c>
-      <c r="H14" s="21">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>4.3805612594113662E-2</v>
       </c>
-      <c r="I14" s="21">
+      <c r="J14" s="21">
         <f t="shared" si="0"/>
         <v>0.14148219441770921</v>
       </c>
-      <c r="J14" s="21">
+      <c r="K14" s="21">
         <f t="shared" si="0"/>
         <v>-7.7821011673151023E-3</v>
       </c>
-      <c r="K14" s="21">
+      <c r="L14" s="21">
         <f t="shared" si="0"/>
         <v>3.3302497687326633E-2</v>
       </c>
-      <c r="L14" s="21">
+      <c r="M14" s="21">
         <f t="shared" si="0"/>
         <v>5.0215208034433287E-2</v>
       </c>
-      <c r="M14" s="21">
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>3.4666666666666721E-2</v>
       </c>
-      <c r="N14" s="21">
-        <f>(N12-N11)/N11</f>
+      <c r="O14" s="21">
+        <f>(O12-O11)/O11</f>
         <v>6.0067681895093011E-2</v>
       </c>
-      <c r="O14" s="34">
+      <c r="P14" s="34">
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="23">
-        <f>[2]AnnualPercentCh!$BC$305/100</f>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23">
         <v>0.01</v>
       </c>
-      <c r="F15" s="23">
-        <f>[2]AnnualPercentCh!$BJ$305/100</f>
+      <c r="G15" s="23">
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -5985,46 +5925,48 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="21"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" s="20">
         <v>0.19</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="20">
-        <v>0.33</v>
-      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G16" s="20"/>
+        <v>0.24</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.08</v>
+      </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="20">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
         <v>0.12</v>
       </c>
-      <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="20">
+      <c r="L16" s="20"/>
+      <c r="M16" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20">
-        <f>1 - SUM(B16:M16)</f>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="O16" s="21">
-        <f>1 - SUM($B16:$M16)</f>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
+        <f>1 - SUM(B16:N16)</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="P16" s="21">
+        <f>1 - SUM($B16:$N16)</f>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="24">
         <f>B16*B14</f>
@@ -6032,44 +5974,41 @@
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="24">
-        <f>E16*E15</f>
-        <v>3.3000000000000004E-3</v>
-      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="24">
-        <f>F16*F15</f>
-        <v>2.5200000000000005E-3</v>
-      </c>
-      <c r="G17" s="24"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G17" s="24">
+        <v>2.8800000000000002E-3</v>
+      </c>
       <c r="H17" s="24"/>
-      <c r="I17" s="24">
-        <f>I16*I14</f>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24">
+        <f>J16*J14</f>
         <v>1.6977863330125104E-2</v>
       </c>
-      <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="24">
-        <f>L16*L14</f>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24">
+        <f>M16*M14</f>
         <v>7.0301291248206612E-3</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24">
-        <f>N16*N14</f>
-        <v>9.0101522842639462E-3</v>
-      </c>
-      <c r="O17" s="21">
+      <c r="N17" s="24"/>
+      <c r="O17" s="24">
         <f>O16*O14</f>
-        <v>3.8849999999999974E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.3815566835871391E-2</v>
+      </c>
+      <c r="P17" s="21">
+        <f>P16*P14</f>
+        <v>5.9569999999999996E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -6077,24 +6016,25 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="26">
-        <f>SUM(B17:N17)</f>
-        <v>4.7550666785065074E-2</v>
+        <f>SUM(B17:O17)</f>
+        <v>5.1816081336672523E-2</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="22" t="s">
-        <v>220</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>240</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -6102,6 +6042,15 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F20" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inflation-calculations-all-three-types.xlsx
+++ b/inflation-calculations-all-three-types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickocal_mchome/Documents/_uq-aibe/explainer-series/inflation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CC3C4D-1780-4744-A1BC-84A4ED7B5A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF9DF4-D4DB-DE4A-A76F-219308028A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Typical_Queenslander" sheetId="4" r:id="rId1"/>
@@ -2186,7 +2186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="246">
   <si>
     <t>Index Numbers ;  Food and non-alcoholic beverages ;  Sydney ;</t>
   </si>
@@ -2921,6 +2921,9 @@
   </si>
   <si>
     <t>source-New Dwelling purchase by owner-occupiers</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -3155,11 +3158,11 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3614,7 +3617,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4150,7 +4153,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B13" s="19">
         <f>A2325861A_Latest-B11</f>
         <v>5.1999999999999886</v>
@@ -4449,7 +4454,7 @@
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>237</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -5242,7 +5247,7 @@
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>237</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -6131,19 +6136,19 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="D8" s="15" t="s">
@@ -9447,19 +9452,19 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="10" spans="2:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
